--- a/HORARIO LOAYZA.xlsx
+++ b/HORARIO LOAYZA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aguirre\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleberAndres\Documents\universidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HORARIO LOAYZA.xlsx
+++ b/HORARIO LOAYZA.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleberAndres\Documents\universidad\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
   <si>
     <t>UNIVERSIDAD TÉCNICA DE MACHALA</t>
   </si>
@@ -264,6 +259,9 @@
   </si>
   <si>
     <t>CAPACITACIÓN CONTINUA ECONOMÍA</t>
+  </si>
+  <si>
+    <t>Practicas PreProf</t>
   </si>
 </sst>
 </file>
@@ -483,7 +481,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,7 +516,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -695,7 +693,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -705,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,7 +960,9 @@
       <c r="E16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -981,7 +981,9 @@
       <c r="E17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="7"/>
     </row>
@@ -1001,7 +1003,9 @@
       <c r="E18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="7"/>
     </row>
@@ -1021,7 +1025,9 @@
       <c r="E19" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="7"/>
     </row>
@@ -1041,7 +1047,9 @@
       <c r="E20" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="7"/>
     </row>
@@ -1072,9 +1080,7 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7"/>
@@ -1086,9 +1092,7 @@
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7"/>
@@ -1100,9 +1104,7 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7"/>
@@ -1114,9 +1116,7 @@
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="13" t="s">
@@ -1130,9 +1130,7 @@
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8" t="s">

--- a/HORARIO LOAYZA.xlsx
+++ b/HORARIO LOAYZA.xlsx
@@ -261,7 +261,7 @@
     <t>CAPACITACIÓN CONTINUA ECONOMÍA</t>
   </si>
   <si>
-    <t>Practicas PreProf</t>
+    <t>Practicas PreProf Economia</t>
   </si>
 </sst>
 </file>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +714,7 @@
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -946,7 +946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>25</v>
       </c>
